--- a/tabular/Africa3miss.xlsx
+++ b/tabular/Africa3miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/africa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA3227-009A-F04D-89F2-78CCFEEB706D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A644C1-A82E-0040-9AB0-D8E60B4CAA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="43600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,30 +1420,9 @@
     <t>Country_update</t>
   </si>
   <si>
-    <t>Collection.year_edit</t>
-  </si>
-  <si>
-    <t>Collection.year_update</t>
-  </si>
-  <si>
-    <t>earliest.collection_edit</t>
-  </si>
-  <si>
-    <t>earliest.collection_update</t>
-  </si>
-  <si>
-    <t>latest.collection_edit</t>
-  </si>
-  <si>
-    <t>latest.collection_update</t>
-  </si>
-  <si>
     <t>host_update</t>
   </si>
   <si>
-    <t>host.common_edit</t>
-  </si>
-  <si>
     <t>pubmed_update</t>
   </si>
   <si>
@@ -1478,6 +1457,27 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Collection_year_edit</t>
+  </si>
+  <si>
+    <t>Collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_+Z1collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
   </si>
 </sst>
 </file>
@@ -2027,12 +2027,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:AH108"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="U10" sqref="A1:AH108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="14.5" customWidth="1"/>
     <col min="18" max="18" width="17.5" customWidth="1"/>
     <col min="19" max="19" width="14.5" customWidth="1"/>
@@ -2103,49 +2107,49 @@
         <v>465</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2201,52 +2205,52 @@
         <v>237</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>235</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U2" s="6">
         <v>1987</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W2" s="6">
         <v>1987</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y2" s="7">
         <v>1987</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>381</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>412</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE2" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF2" s="5" t="s">
         <v>270</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH2" t="s">
         <v>385</v>
@@ -2305,52 +2309,52 @@
         <v>237</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>235</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y3" s="10">
         <v>2002</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>382</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AD3" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE3" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF3" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AG3" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH3" t="s">
         <v>386</v>
@@ -2409,50 +2413,50 @@
         <v>237</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>383</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U4" s="14" t="s">
         <v>239</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>239</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y4" s="14">
         <v>1992</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA4" s="16" t="s">
         <v>384</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC4" s="14"/>
       <c r="AD4" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE4" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>274</v>
       </c>
       <c r="AG4" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2508,50 +2512,50 @@
         <v>237</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U5" s="16">
         <v>1987</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W5" s="16">
         <v>1987</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y5" s="18">
         <v>1987</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA5" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE5" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF5" s="10" t="s">
         <v>277</v>
       </c>
       <c r="AG5" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH5" t="s">
         <v>387</v>
@@ -2610,50 +2614,50 @@
         <v>238</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U6" s="23" t="s">
         <v>235</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W6" s="14" t="s">
         <v>235</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y6" s="14">
         <v>2001</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA6" s="14" t="s">
         <v>266</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC6" s="14"/>
       <c r="AD6" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE6" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF6" s="14" t="s">
         <v>271</v>
       </c>
       <c r="AG6" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH6" t="s">
         <v>388</v>
@@ -2712,50 +2716,50 @@
         <v>237</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U7" s="16">
         <v>1990</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W7" s="16">
         <v>1990</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y7" s="18">
         <v>1990</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA7" s="10" t="s">
         <v>267</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE7" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF7" s="10" t="s">
         <v>271</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH7" t="s">
         <v>389</v>
@@ -2814,50 +2818,50 @@
         <v>237</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U8" s="16">
         <v>1990</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W8" s="16">
         <v>1990</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y8" s="18">
         <v>1990</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA8" s="14" t="s">
         <v>267</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC8" s="14"/>
       <c r="AD8" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE8" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF8" s="14" t="s">
         <v>271</v>
       </c>
       <c r="AG8" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH8" t="s">
         <v>389</v>
@@ -2916,50 +2920,50 @@
         <v>237</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U9" s="16">
         <v>1995</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W9" s="16">
         <v>1995</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y9" s="18">
         <v>1995</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>267</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE9" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF9" s="10" t="s">
         <v>271</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3015,50 +3019,50 @@
         <v>390</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U10" s="16">
         <v>1992</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W10" s="16">
         <v>1992</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y10" s="18">
         <v>1992</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA10" s="18" t="s">
         <v>404</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AC10" s="14"/>
       <c r="AD10" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE10" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF10" s="14" t="s">
         <v>271</v>
       </c>
       <c r="AG10" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH10" t="s">
         <v>391</v>
@@ -3117,52 +3121,52 @@
         <v>237</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U11" s="16">
         <v>2000</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W11" s="16">
         <v>2000</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y11" s="18">
         <v>2000</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA11" s="18" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AD11" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE11" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF11" s="10" t="s">
         <v>271</v>
       </c>
       <c r="AG11" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH11" t="s">
         <v>392</v>
@@ -3221,50 +3225,50 @@
         <v>390</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U12" s="16">
         <v>1992</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W12" s="16">
         <v>1992</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y12" s="18">
         <v>1992</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA12" s="18" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AC12" s="14"/>
       <c r="AD12" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE12" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF12" s="14" t="s">
         <v>271</v>
       </c>
       <c r="AG12" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH12" t="s">
         <v>393</v>
@@ -3323,50 +3327,50 @@
         <v>237</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S13" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U13" s="16">
         <v>1990</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W13" s="16">
         <v>1990</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y13" s="18">
         <v>1990</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA13" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE13" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF13" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AG13" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH13" t="s">
         <v>395</v>
@@ -3425,50 +3429,50 @@
         <v>237</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S14" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U14" s="14" t="s">
         <v>244</v>
       </c>
       <c r="V14" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>244</v>
       </c>
       <c r="X14" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y14" s="14">
         <v>1990</v>
       </c>
       <c r="Z14" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA14" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE14" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF14" s="14" t="s">
         <v>276</v>
       </c>
       <c r="AG14" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3524,50 +3528,50 @@
         <v>237</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S15" s="16" t="s">
         <v>398</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U15" s="16">
         <v>1990</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W15" s="16">
         <v>1990</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y15" s="18">
         <v>1990</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA15" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC15" s="10"/>
       <c r="AD15" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE15" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF15" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG15" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3623,50 +3627,50 @@
         <v>237</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>397</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U16" s="16">
         <v>1995</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W16" s="16">
         <v>1995</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y16" s="18">
         <v>1995</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA16" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE16" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF16" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG16" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3722,50 +3726,50 @@
         <v>237</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S17" s="16" t="s">
         <v>399</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U17" s="16">
         <v>1994</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W17" s="16">
         <v>1994</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y17" s="18">
         <v>1994</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA17" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC17" s="10"/>
       <c r="AD17" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE17" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF17" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3821,50 +3825,50 @@
         <v>237</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S18" s="16" t="s">
         <v>401</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U18" s="16">
         <v>1990</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W18" s="16">
         <v>1990</v>
       </c>
       <c r="X18" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y18" s="18">
         <v>1990</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA18" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC18" s="14"/>
       <c r="AD18" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE18" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF18" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG18" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3920,50 +3924,50 @@
         <v>237</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S19" s="16" t="s">
         <v>402</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U19" s="16">
         <v>1990</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W19" s="16">
         <v>1990</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y19" s="18">
         <v>1990</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA19" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC19" s="10"/>
       <c r="AD19" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE19" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF19" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4019,50 +4023,50 @@
         <v>237</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S20" s="16" t="s">
         <v>403</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U20" s="16">
         <v>1995</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W20" s="16">
         <v>1995</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y20" s="18">
         <v>1995</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA20" s="16" t="s">
         <v>404</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE20" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF20" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG20" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4118,50 +4122,50 @@
         <v>237</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S21" s="16" t="s">
         <v>405</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U21" s="16">
         <v>1995</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W21" s="16">
         <v>1995</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y21" s="18">
         <v>1995</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA21" s="16" t="s">
         <v>406</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC21" s="10"/>
       <c r="AD21" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF21" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG21" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4217,50 +4221,50 @@
         <v>237</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S22" s="16" t="s">
         <v>407</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U22" s="16">
         <v>1995</v>
       </c>
       <c r="V22" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W22" s="16">
         <v>1995</v>
       </c>
       <c r="X22" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y22" s="18">
         <v>1995</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA22" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE22" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF22" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG22" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4316,50 +4320,50 @@
         <v>237</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S23" s="16" t="s">
         <v>401</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U23" s="16">
         <v>1998</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W23" s="16">
         <v>1998</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y23" s="18">
         <v>1998</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA23" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC23" s="10"/>
       <c r="AD23" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE23" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF23" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG23" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4415,50 +4419,50 @@
         <v>237</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S24" s="16" t="s">
         <v>408</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U24" s="16">
         <v>1996</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W24" s="16">
         <v>1996</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y24" s="18">
         <v>1996</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA24" s="16" t="s">
         <v>409</v>
       </c>
       <c r="AB24" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC24" s="14"/>
       <c r="AD24" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE24" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF24" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG24" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4514,52 +4518,52 @@
         <v>237</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>410</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W25" s="16">
         <v>1995</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y25" s="18">
         <v>2007</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA25" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB25" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC25" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD25" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE25" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF25" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG25" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH25" t="s">
         <v>411</v>
@@ -4618,52 +4622,52 @@
         <v>237</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S26" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U26" s="14" t="s">
         <v>242</v>
       </c>
       <c r="V26" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W26" s="14" t="s">
         <v>242</v>
       </c>
       <c r="X26" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y26" s="14">
         <v>2008</v>
       </c>
       <c r="Z26" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA26" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB26" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC26" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD26" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE26" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF26" s="15">
         <v>25685866</v>
       </c>
       <c r="AG26" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH26" t="s">
         <v>412</v>
@@ -4722,52 +4726,52 @@
         <v>237</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>242</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W27" s="10" t="s">
         <v>242</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y27" s="10">
         <v>2008</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA27" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD27" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE27" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF27" s="15">
         <v>25685866</v>
       </c>
       <c r="AG27" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH27" t="s">
         <v>412</v>
@@ -4826,52 +4830,52 @@
         <v>237</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S28" s="16" t="s">
         <v>398</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U28" s="16">
         <v>1995</v>
       </c>
       <c r="V28" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W28" s="16">
         <v>1995</v>
       </c>
       <c r="X28" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y28" s="18">
         <v>1995</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA28" s="12" t="s">
         <v>413</v>
       </c>
       <c r="AB28" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>414</v>
       </c>
       <c r="AD28" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE28" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF28" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG28" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH28" t="s">
         <v>414</v>
@@ -4930,50 +4934,50 @@
         <v>237</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S29" s="16" t="s">
         <v>415</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U29" s="16">
         <v>1995</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W29" s="16">
         <v>1995</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y29" s="18">
         <v>1995</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA29" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB29" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE29" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF29" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG29" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5029,52 +5033,52 @@
         <v>237</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S30" s="16" t="s">
         <v>402</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U30" s="16">
         <v>1995</v>
       </c>
       <c r="V30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W30" s="16">
         <v>1995</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y30" s="18">
         <v>1995</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA30" s="12" t="s">
         <v>413</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC30" s="12" t="s">
         <v>414</v>
       </c>
       <c r="AD30" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE30" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF30" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG30" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH30" t="s">
         <v>414</v>
@@ -5133,52 +5137,52 @@
         <v>237</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S31" s="16" t="s">
         <v>416</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U31" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W31" s="16">
         <v>1995</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y31" s="18">
         <v>2007</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA31" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB31" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC31" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD31" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE31" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF31" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG31" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH31" t="s">
         <v>411</v>
@@ -5237,52 +5241,52 @@
         <v>237</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S32" s="16" t="s">
         <v>407</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U32" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V32" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W32" s="16">
         <v>1995</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y32" s="18">
         <v>2007</v>
       </c>
       <c r="Z32" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA32" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB32" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC32" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD32" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE32" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF32" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG32" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH32" t="s">
         <v>411</v>
@@ -5341,52 +5345,52 @@
         <v>237</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S33" s="16" t="s">
         <v>417</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U33" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W33" s="16">
         <v>1995</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y33" s="18">
         <v>2007</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA33" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB33" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC33" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD33" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE33" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF33" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG33" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH33" t="s">
         <v>411</v>
@@ -5445,52 +5449,52 @@
         <v>237</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S34" s="16" t="s">
         <v>397</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U34" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V34" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W34" s="16">
         <v>1995</v>
       </c>
       <c r="X34" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y34" s="18">
         <v>2007</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA34" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB34" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC34" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD34" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE34" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF34" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG34" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH34" t="s">
         <v>411</v>
@@ -5549,52 +5553,52 @@
         <v>237</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S35" s="16" t="s">
         <v>401</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U35" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W35" s="16">
         <v>1995</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y35" s="18">
         <v>2007</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA35" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB35" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC35" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD35" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE35" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF35" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG35" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH35" t="s">
         <v>411</v>
@@ -5653,52 +5657,52 @@
         <v>237</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>410</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U36" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W36" s="16">
         <v>1995</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y36" s="18">
         <v>2007</v>
       </c>
       <c r="Z36" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA36" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC36" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD36" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE36" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF36" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG36" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH36" t="s">
         <v>411</v>
@@ -5757,52 +5761,52 @@
         <v>237</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S37" s="16" t="s">
         <v>418</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U37" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W37" s="16">
         <v>1995</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y37" s="18">
         <v>2007</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA37" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB37" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC37" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD37" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE37" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF37" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG37" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH37" t="s">
         <v>411</v>
@@ -5861,52 +5865,52 @@
         <v>237</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S38" s="16" t="s">
         <v>417</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U38" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W38" s="16">
         <v>1995</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y38" s="18">
         <v>2007</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA38" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC38" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD38" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE38" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF38" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG38" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH38" t="s">
         <v>411</v>
@@ -5965,52 +5969,52 @@
         <v>237</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S39" s="16" t="s">
         <v>417</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W39" s="16">
         <v>1995</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y39" s="18">
         <v>2007</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA39" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB39" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC39" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD39" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE39" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF39" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG39" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH39" t="s">
         <v>411</v>
@@ -6069,52 +6073,52 @@
         <v>237</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S40" s="16" t="s">
         <v>419</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U40" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W40" s="16">
         <v>1995</v>
       </c>
       <c r="X40" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y40" s="18">
         <v>2007</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA40" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB40" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC40" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD40" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE40" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF40" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG40" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH40" t="s">
         <v>411</v>
@@ -6173,52 +6177,52 @@
         <v>237</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S41" s="16" t="s">
         <v>420</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U41" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V41" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W41" s="16">
         <v>1995</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y41" s="18">
         <v>2007</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA41" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB41" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC41" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD41" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE41" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF41" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG41" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH41" t="s">
         <v>411</v>
@@ -6277,52 +6281,52 @@
         <v>237</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S42" s="16" t="s">
         <v>421</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U42" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V42" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W42" s="16">
         <v>1995</v>
       </c>
       <c r="X42" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y42" s="18">
         <v>2007</v>
       </c>
       <c r="Z42" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA42" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC42" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD42" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE42" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF42" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH42" t="s">
         <v>411</v>
@@ -6381,52 +6385,52 @@
         <v>237</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S43" s="16" t="s">
         <v>422</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U43" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W43" s="16">
         <v>1995</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y43" s="18">
         <v>2007</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA43" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB43" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC43" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD43" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE43" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF43" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG43" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH43" t="s">
         <v>411</v>
@@ -6485,52 +6489,52 @@
         <v>237</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S44" s="16" t="s">
         <v>423</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U44" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V44" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W44" s="16">
         <v>1995</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y44" s="18">
         <v>2007</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA44" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC44" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD44" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE44" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF44" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG44" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH44" t="s">
         <v>411</v>
@@ -6589,52 +6593,52 @@
         <v>237</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S45" s="16" t="s">
         <v>424</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U45" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W45" s="16">
         <v>1995</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y45" s="18">
         <v>2007</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA45" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB45" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC45" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD45" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE45" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF45" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG45" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH45" t="s">
         <v>411</v>
@@ -6693,52 +6697,52 @@
         <v>237</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S46" s="16" t="s">
         <v>417</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U46" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W46" s="16">
         <v>1995</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y46" s="18">
         <v>2007</v>
       </c>
       <c r="Z46" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA46" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC46" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD46" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE46" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF46" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG46" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH46" t="s">
         <v>411</v>
@@ -6797,52 +6801,52 @@
         <v>237</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S47" s="16" t="s">
         <v>425</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U47" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W47" s="16">
         <v>1995</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y47" s="18">
         <v>2007</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA47" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB47" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC47" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD47" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE47" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF47" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG47" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH47" t="s">
         <v>411</v>
@@ -6901,52 +6905,52 @@
         <v>237</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S48" s="16" t="s">
         <v>426</v>
       </c>
       <c r="T48" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W48" s="16">
         <v>1995</v>
       </c>
       <c r="X48" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y48" s="18">
         <v>2007</v>
       </c>
       <c r="Z48" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA48" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB48" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC48" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD48" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE48" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF48" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG48" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH48" t="s">
         <v>411</v>
@@ -7005,52 +7009,52 @@
         <v>237</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S49" s="16" t="s">
         <v>407</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U49" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W49" s="16">
         <v>1995</v>
       </c>
       <c r="X49" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y49" s="18">
         <v>2007</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA49" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC49" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD49" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE49" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF49" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG49" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH49" t="s">
         <v>411</v>
@@ -7109,52 +7113,52 @@
         <v>237</v>
       </c>
       <c r="R50" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S50" s="16" t="s">
         <v>407</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U50" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V50" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W50" s="16">
         <v>1995</v>
       </c>
       <c r="X50" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y50" s="18">
         <v>2007</v>
       </c>
       <c r="Z50" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA50" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB50" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC50" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD50" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE50" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF50" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG50" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH50" t="s">
         <v>411</v>
@@ -7213,52 +7217,52 @@
         <v>237</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S51" s="16" t="s">
         <v>423</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U51" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V51" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W51" s="16">
         <v>1995</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y51" s="18">
         <v>2007</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC51" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD51" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE51" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF51" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG51" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH51" t="s">
         <v>411</v>
@@ -7317,52 +7321,52 @@
         <v>237</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S52" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U52" s="14" t="s">
         <v>241</v>
       </c>
       <c r="V52" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W52" s="14" t="s">
         <v>241</v>
       </c>
       <c r="X52" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y52" s="14">
         <v>2006</v>
       </c>
       <c r="Z52" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA52" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB52" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC52" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD52" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE52" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF52" s="15">
         <v>25685866</v>
       </c>
       <c r="AG52" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH52" t="s">
         <v>412</v>
@@ -7421,52 +7425,52 @@
         <v>237</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S53" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U53" s="10" t="s">
         <v>241</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W53" s="10" t="s">
         <v>241</v>
       </c>
       <c r="X53" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y53" s="10">
         <v>2006</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA53" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB53" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC53" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD53" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE53" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF53" s="15">
         <v>25685866</v>
       </c>
       <c r="AG53" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH53" t="s">
         <v>412</v>
@@ -7525,52 +7529,52 @@
         <v>237</v>
       </c>
       <c r="R54" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S54" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T54" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U54" s="14" t="s">
         <v>241</v>
       </c>
       <c r="V54" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W54" s="14" t="s">
         <v>241</v>
       </c>
       <c r="X54" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y54" s="14">
         <v>2006</v>
       </c>
       <c r="Z54" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA54" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB54" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC54" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD54" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE54" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF54" s="15">
         <v>25685866</v>
       </c>
       <c r="AG54" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH54" t="s">
         <v>412</v>
@@ -7629,52 +7633,52 @@
         <v>237</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S55" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U55" s="10" t="s">
         <v>240</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W55" s="10" t="s">
         <v>240</v>
       </c>
       <c r="X55" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y55" s="10">
         <v>2007</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA55" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB55" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC55" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD55" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE55" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF55" s="15">
         <v>25685866</v>
       </c>
       <c r="AG55" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH55" t="s">
         <v>412</v>
@@ -7733,52 +7737,52 @@
         <v>237</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S56" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U56" s="14" t="s">
         <v>240</v>
       </c>
       <c r="V56" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W56" s="14" t="s">
         <v>240</v>
       </c>
       <c r="X56" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y56" s="14">
         <v>2007</v>
       </c>
       <c r="Z56" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA56" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB56" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC56" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD56" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE56" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF56" s="15">
         <v>25685866</v>
       </c>
       <c r="AG56" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH56" t="s">
         <v>412</v>
@@ -7837,52 +7841,52 @@
         <v>237</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S57" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T57" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U57" s="10" t="s">
         <v>241</v>
       </c>
       <c r="V57" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W57" s="10" t="s">
         <v>241</v>
       </c>
       <c r="X57" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y57" s="10">
         <v>2006</v>
       </c>
       <c r="Z57" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA57" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB57" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC57" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD57" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE57" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF57" s="15">
         <v>25685866</v>
       </c>
       <c r="AG57" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH57" t="s">
         <v>412</v>
@@ -7941,52 +7945,52 @@
         <v>237</v>
       </c>
       <c r="R58" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S58" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T58" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U58" s="14" t="s">
         <v>241</v>
       </c>
       <c r="V58" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W58" s="14" t="s">
         <v>241</v>
       </c>
       <c r="X58" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y58" s="14">
         <v>2006</v>
       </c>
       <c r="Z58" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA58" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB58" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC58" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD58" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE58" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF58" s="15">
         <v>25685866</v>
       </c>
       <c r="AG58" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH58" t="s">
         <v>412</v>
@@ -8045,50 +8049,50 @@
         <v>237</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S59" s="16" t="s">
         <v>432</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U59" s="16">
         <v>1980</v>
       </c>
       <c r="V59" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W59" s="16">
         <v>1980</v>
       </c>
       <c r="X59" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y59" s="18">
         <v>1980</v>
       </c>
       <c r="Z59" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA59" s="16" t="s">
         <v>404</v>
       </c>
       <c r="AB59" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC59" s="10"/>
       <c r="AD59" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE59" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF59" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG59" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH59" t="s">
         <v>433</v>
@@ -8147,50 +8151,50 @@
         <v>427</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S60" s="16" t="s">
         <v>428</v>
       </c>
       <c r="T60" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U60" s="16">
         <v>1980</v>
       </c>
       <c r="V60" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W60" s="16">
         <v>1980</v>
       </c>
       <c r="X60" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y60" s="18">
         <v>1980</v>
       </c>
       <c r="Z60" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA60" s="16" t="s">
         <v>404</v>
       </c>
       <c r="AB60" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC60" s="14"/>
       <c r="AD60" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE60" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF60" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG60" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8246,50 +8250,50 @@
         <v>237</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S61" s="16" t="s">
         <v>429</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U61" s="16">
         <v>1995</v>
       </c>
       <c r="V61" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W61" s="16">
         <v>1995</v>
       </c>
       <c r="X61" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y61" s="18">
         <v>1995</v>
       </c>
       <c r="Z61" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA61" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB61" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC61" s="10"/>
       <c r="AD61" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE61" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF61" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG61" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8345,50 +8349,50 @@
         <v>237</v>
       </c>
       <c r="R62" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S62" s="16" t="s">
         <v>430</v>
       </c>
       <c r="T62" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U62" s="16">
         <v>1995</v>
       </c>
       <c r="V62" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W62" s="16">
         <v>1995</v>
       </c>
       <c r="X62" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y62" s="18">
         <v>1995</v>
       </c>
       <c r="Z62" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA62" s="16" t="s">
         <v>431</v>
       </c>
       <c r="AB62" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC62" s="14"/>
       <c r="AD62" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE62" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF62" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG62" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8444,50 +8448,50 @@
         <v>238</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S63" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U63" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W63" s="16">
         <v>1984</v>
       </c>
       <c r="X63" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y63" s="18">
         <v>2003</v>
       </c>
       <c r="Z63" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA63" s="11" t="s">
         <v>235</v>
       </c>
       <c r="AB63" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC63" s="10"/>
       <c r="AD63" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE63" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF63" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AG63" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH63" t="s">
         <v>434</v>
@@ -8546,52 +8550,52 @@
         <v>237</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S64" s="16" t="s">
         <v>435</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U64" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V64" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W64" s="16">
         <v>1995</v>
       </c>
       <c r="X64" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y64" s="18">
         <v>2007</v>
       </c>
       <c r="Z64" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA64" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB64" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC64" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD64" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE64" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF64" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG64" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH64" t="s">
         <v>411</v>
@@ -8650,52 +8654,52 @@
         <v>237</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S65" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T65" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U65" s="10" t="s">
         <v>241</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W65" s="10" t="s">
         <v>241</v>
       </c>
       <c r="X65" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y65" s="10">
         <v>2006</v>
       </c>
       <c r="Z65" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA65" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB65" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC65" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD65" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE65" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF65" s="15">
         <v>25685866</v>
       </c>
       <c r="AG65" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH65" t="s">
         <v>412</v>
@@ -8754,50 +8758,50 @@
         <v>237</v>
       </c>
       <c r="R66" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S66" s="16" t="s">
         <v>436</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U66" s="16">
         <v>1990</v>
       </c>
       <c r="V66" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W66" s="16">
         <v>1990</v>
       </c>
       <c r="X66" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y66" s="18">
         <v>1990</v>
       </c>
       <c r="Z66" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA66" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB66" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC66" s="14"/>
       <c r="AD66" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE66" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF66" s="14">
         <v>15763147</v>
       </c>
       <c r="AG66" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8853,50 +8857,50 @@
         <v>237</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S67" s="16" t="s">
         <v>421</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U67" s="16">
         <v>1990</v>
       </c>
       <c r="V67" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W67" s="16">
         <v>1990</v>
       </c>
       <c r="X67" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y67" s="18">
         <v>1990</v>
       </c>
       <c r="Z67" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA67" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB67" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC67" s="10"/>
       <c r="AD67" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE67" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF67" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG67" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8952,50 +8956,50 @@
         <v>237</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S68" s="16" t="s">
         <v>437</v>
       </c>
       <c r="T68" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U68" s="16">
         <v>1991</v>
       </c>
       <c r="V68" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W68" s="16">
         <v>1991</v>
       </c>
       <c r="X68" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y68" s="18">
         <v>1991</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA68" s="16" t="s">
         <v>431</v>
       </c>
       <c r="AB68" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC68" s="14"/>
       <c r="AD68" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE68" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF68" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG68" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9051,52 +9055,52 @@
         <v>237</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S69" s="16" t="s">
         <v>438</v>
       </c>
       <c r="T69" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U69" s="16">
         <v>1992</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W69" s="16">
         <v>1992</v>
       </c>
       <c r="X69" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y69" s="18">
         <v>1992</v>
       </c>
       <c r="Z69" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA69" s="12" t="s">
         <v>413</v>
       </c>
       <c r="AB69" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC69" s="12" t="s">
         <v>414</v>
       </c>
       <c r="AD69" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE69" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF69" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG69" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH69" t="s">
         <v>414</v>
@@ -9155,50 +9159,50 @@
         <v>237</v>
       </c>
       <c r="R70" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S70" s="16" t="s">
         <v>439</v>
       </c>
       <c r="T70" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U70" s="16">
         <v>1990</v>
       </c>
       <c r="V70" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W70" s="16">
         <v>1990</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y70" s="18">
         <v>1990</v>
       </c>
       <c r="Z70" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA70" s="16" t="s">
         <v>440</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC70" s="14"/>
       <c r="AD70" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE70" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF70" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG70" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9254,50 +9258,50 @@
         <v>237</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>235</v>
       </c>
       <c r="T71" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U71" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V71" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W71" s="10" t="s">
         <v>235</v>
       </c>
       <c r="X71" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y71" s="10">
         <v>1999</v>
       </c>
       <c r="Z71" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA71" s="11" t="s">
         <v>235</v>
       </c>
       <c r="AB71" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC71" s="10"/>
       <c r="AD71" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE71" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF71" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG71" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9353,50 +9357,50 @@
         <v>237</v>
       </c>
       <c r="R72" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S72" s="16" t="s">
         <v>441</v>
       </c>
       <c r="T72" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U72" s="16">
         <v>1995</v>
       </c>
       <c r="V72" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W72" s="16">
         <v>1995</v>
       </c>
       <c r="X72" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y72" s="18">
         <v>1995</v>
       </c>
       <c r="Z72" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA72" s="16" t="s">
         <v>442</v>
       </c>
       <c r="AB72" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC72" s="14"/>
       <c r="AD72" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE72" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF72" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG72" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9452,52 +9456,52 @@
         <v>237</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S73" s="16" t="s">
         <v>438</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U73" s="16">
         <v>1995</v>
       </c>
       <c r="V73" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W73" s="16">
         <v>1995</v>
       </c>
       <c r="X73" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y73" s="18">
         <v>1995</v>
       </c>
       <c r="Z73" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA73" s="12" t="s">
         <v>443</v>
       </c>
       <c r="AB73" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC73" s="12" t="s">
         <v>444</v>
       </c>
       <c r="AD73" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE73" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF73" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG73" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH73" t="s">
         <v>444</v>
@@ -9556,52 +9560,52 @@
         <v>237</v>
       </c>
       <c r="R74" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S74" s="16" t="s">
         <v>445</v>
       </c>
       <c r="T74" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U74" s="16">
         <v>1995</v>
       </c>
       <c r="V74" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W74" s="16">
         <v>1995</v>
       </c>
       <c r="X74" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y74" s="18">
         <v>1995</v>
       </c>
       <c r="Z74" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA74" s="12" t="s">
         <v>413</v>
       </c>
       <c r="AB74" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC74" s="12" t="s">
         <v>414</v>
       </c>
       <c r="AD74" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE74" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF74" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG74" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH74" t="s">
         <v>414</v>
@@ -9660,50 +9664,50 @@
         <v>237</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S75" s="16" t="s">
         <v>446</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U75" s="16">
         <v>1996</v>
       </c>
       <c r="V75" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W75" s="16">
         <v>1996</v>
       </c>
       <c r="X75" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y75" s="18">
         <v>1996</v>
       </c>
       <c r="Z75" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA75" s="16" t="s">
         <v>384</v>
       </c>
       <c r="AB75" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC75" s="10"/>
       <c r="AD75" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE75" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF75" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG75" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9759,50 +9763,50 @@
         <v>237</v>
       </c>
       <c r="R76" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S76" s="16" t="s">
         <v>447</v>
       </c>
       <c r="T76" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U76" s="16">
         <v>1996</v>
       </c>
       <c r="V76" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W76" s="16">
         <v>1996</v>
       </c>
       <c r="X76" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y76" s="18">
         <v>1996</v>
       </c>
       <c r="Z76" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA76" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB76" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC76" s="14"/>
       <c r="AD76" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE76" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF76" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG76" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9858,50 +9862,50 @@
         <v>237</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S77" s="16" t="s">
         <v>448</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U77" s="16">
         <v>1995</v>
       </c>
       <c r="V77" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W77" s="16">
         <v>1995</v>
       </c>
       <c r="X77" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y77" s="18">
         <v>1995</v>
       </c>
       <c r="Z77" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA77" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB77" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC77" s="10"/>
       <c r="AD77" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE77" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF77" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG77" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9957,50 +9961,50 @@
         <v>237</v>
       </c>
       <c r="R78" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S78" s="16" t="s">
         <v>421</v>
       </c>
       <c r="T78" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U78" s="16">
         <v>1998</v>
       </c>
       <c r="V78" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W78" s="16">
         <v>1998</v>
       </c>
       <c r="X78" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y78" s="18">
         <v>1998</v>
       </c>
       <c r="Z78" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA78" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB78" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC78" s="14"/>
       <c r="AD78" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE78" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF78" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG78" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10056,52 +10060,52 @@
         <v>237</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S79" s="16" t="s">
         <v>424</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U79" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V79" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W79" s="16">
         <v>1995</v>
       </c>
       <c r="X79" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y79" s="18">
         <v>2007</v>
       </c>
       <c r="Z79" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA79" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC79" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD79" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE79" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF79" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG79" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH79" t="s">
         <v>411</v>
@@ -10160,52 +10164,52 @@
         <v>237</v>
       </c>
       <c r="R80" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S80" s="16" t="s">
         <v>416</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U80" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V80" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W80" s="16">
         <v>1995</v>
       </c>
       <c r="X80" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y80" s="18">
         <v>2007</v>
       </c>
       <c r="Z80" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA80" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB80" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC80" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD80" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE80" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF80" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG80" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH80" t="s">
         <v>411</v>
@@ -10264,52 +10268,52 @@
         <v>237</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S81" s="16" t="s">
         <v>424</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U81" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W81" s="16">
         <v>1995</v>
       </c>
       <c r="X81" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y81" s="18">
         <v>2007</v>
       </c>
       <c r="Z81" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA81" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB81" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC81" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD81" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE81" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF81" s="10" t="s">
         <v>273</v>
       </c>
       <c r="AG81" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH81" t="s">
         <v>411</v>
@@ -10368,52 +10372,52 @@
         <v>237</v>
       </c>
       <c r="R82" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S82" s="16" t="s">
         <v>449</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U82" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V82" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W82" s="16">
         <v>1995</v>
       </c>
       <c r="X82" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y82" s="18">
         <v>2007</v>
       </c>
       <c r="Z82" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA82" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC82" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD82" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE82" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF82" s="14" t="s">
         <v>273</v>
       </c>
       <c r="AG82" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH82" t="s">
         <v>411</v>
@@ -10472,50 +10476,50 @@
         <v>237</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S83" s="16" t="s">
         <v>450</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U83" s="16">
         <v>2005</v>
       </c>
       <c r="V83" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W83" s="16">
         <v>2005</v>
       </c>
       <c r="X83" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y83" s="18">
         <v>2005</v>
       </c>
       <c r="Z83" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA83" s="16" t="s">
         <v>451</v>
       </c>
       <c r="AB83" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC83" s="10"/>
       <c r="AD83" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE83" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF83" s="10" t="s">
         <v>275</v>
       </c>
       <c r="AG83" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10571,50 +10575,50 @@
         <v>237</v>
       </c>
       <c r="R84" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S84" s="16" t="s">
         <v>452</v>
       </c>
       <c r="T84" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U84" s="16">
         <v>1992</v>
       </c>
       <c r="V84" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W84" s="16">
         <v>1992</v>
       </c>
       <c r="X84" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y84" s="18">
         <v>1992</v>
       </c>
       <c r="Z84" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA84" s="16" t="s">
         <v>409</v>
       </c>
       <c r="AB84" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC84" s="14"/>
       <c r="AD84" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE84" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF84" s="14" t="s">
         <v>275</v>
       </c>
       <c r="AG84" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10670,52 +10674,52 @@
         <v>237</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S85" s="16" t="s">
         <v>453</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U85" s="16">
         <v>1986</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W85" s="16">
         <v>1986</v>
       </c>
       <c r="X85" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y85" s="18">
         <v>1986</v>
       </c>
       <c r="Z85" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA85" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB85" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC85" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD85" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE85" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF85" s="10" t="s">
         <v>275</v>
       </c>
       <c r="AG85" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH85" t="s">
         <v>412</v>
@@ -10774,50 +10778,50 @@
         <v>237</v>
       </c>
       <c r="R86" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S86" s="16" t="s">
         <v>454</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U86" s="16">
         <v>1990</v>
       </c>
       <c r="V86" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W86" s="16">
         <v>1990</v>
       </c>
       <c r="X86" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y86" s="18">
         <v>1990</v>
       </c>
       <c r="Z86" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>409</v>
       </c>
       <c r="AB86" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC86" s="14"/>
       <c r="AD86" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE86" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF86" s="14" t="s">
         <v>275</v>
       </c>
       <c r="AG86" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10873,52 +10877,52 @@
         <v>237</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S87" s="16" t="s">
         <v>455</v>
       </c>
       <c r="T87" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U87" s="16">
         <v>1987</v>
       </c>
       <c r="V87" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W87" s="16">
         <v>1987</v>
       </c>
       <c r="X87" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y87" s="18">
         <v>1987</v>
       </c>
       <c r="Z87" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA87" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB87" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC87" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD87" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE87" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF87" s="10" t="s">
         <v>275</v>
       </c>
       <c r="AG87" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH87" t="s">
         <v>412</v>
@@ -10977,52 +10981,52 @@
         <v>237</v>
       </c>
       <c r="R88" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S88" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T88" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U88" s="14" t="s">
         <v>240</v>
       </c>
       <c r="V88" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W88" s="14" t="s">
         <v>240</v>
       </c>
       <c r="X88" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y88" s="14">
         <v>2007</v>
       </c>
       <c r="Z88" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA88" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB88" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC88" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD88" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE88" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF88" s="15">
         <v>25685866</v>
       </c>
       <c r="AG88" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH88" t="s">
         <v>412</v>
@@ -11081,52 +11085,52 @@
         <v>237</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S89" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U89" s="10" t="s">
         <v>241</v>
       </c>
       <c r="V89" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W89" s="10" t="s">
         <v>241</v>
       </c>
       <c r="X89" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y89" s="10">
         <v>2006</v>
       </c>
       <c r="Z89" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA89" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB89" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC89" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD89" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE89" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF89" s="15">
         <v>25685866</v>
       </c>
       <c r="AG89" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH89" t="s">
         <v>412</v>
@@ -11185,52 +11189,52 @@
         <v>237</v>
       </c>
       <c r="R90" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S90" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T90" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U90" s="14" t="s">
         <v>243</v>
       </c>
       <c r="V90" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W90" s="14" t="s">
         <v>243</v>
       </c>
       <c r="X90" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y90" s="14">
         <v>2005</v>
       </c>
       <c r="Z90" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA90" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC90" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD90" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE90" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF90" s="15">
         <v>25685866</v>
       </c>
       <c r="AG90" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH90" t="s">
         <v>412</v>
@@ -11289,52 +11293,52 @@
         <v>237</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S91" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U91" s="10" t="s">
         <v>241</v>
       </c>
       <c r="V91" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W91" s="10" t="s">
         <v>241</v>
       </c>
       <c r="X91" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y91" s="10">
         <v>2006</v>
       </c>
       <c r="Z91" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA91" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB91" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC91" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD91" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE91" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF91" s="15">
         <v>25685866</v>
       </c>
       <c r="AG91" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH91" t="s">
         <v>412</v>
@@ -11393,50 +11397,50 @@
         <v>237</v>
       </c>
       <c r="R92" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S92" s="16" t="s">
         <v>456</v>
       </c>
       <c r="T92" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U92" s="16">
         <v>1990</v>
       </c>
       <c r="V92" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W92" s="16">
         <v>1990</v>
       </c>
       <c r="X92" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y92" s="18">
         <v>1990</v>
       </c>
       <c r="Z92" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA92" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB92" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC92" s="14"/>
       <c r="AD92" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE92" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF92" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG92" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11492,50 +11496,50 @@
         <v>237</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S93" s="16" t="s">
         <v>457</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U93" s="16">
         <v>1993</v>
       </c>
       <c r="V93" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W93" s="16">
         <v>1993</v>
       </c>
       <c r="X93" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y93" s="18">
         <v>1993</v>
       </c>
       <c r="Z93" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA93" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB93" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC93" s="10"/>
       <c r="AD93" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE93" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF93" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG93" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11591,50 +11595,50 @@
         <v>237</v>
       </c>
       <c r="R94" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S94" s="16" t="s">
         <v>383</v>
       </c>
       <c r="T94" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U94" s="16">
         <v>1992</v>
       </c>
       <c r="V94" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W94" s="16">
         <v>1992</v>
       </c>
       <c r="X94" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y94" s="18">
         <v>1992</v>
       </c>
       <c r="Z94" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA94" s="16" t="s">
         <v>384</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC94" s="14"/>
       <c r="AD94" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE94" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF94" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG94" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11690,50 +11694,50 @@
         <v>237</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S95" s="16" t="s">
         <v>408</v>
       </c>
       <c r="T95" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U95" s="16">
         <v>1993</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W95" s="16">
         <v>1993</v>
       </c>
       <c r="X95" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y95" s="18">
         <v>1993</v>
       </c>
       <c r="Z95" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA95" s="16" t="s">
         <v>400</v>
       </c>
       <c r="AB95" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC95" s="10"/>
       <c r="AD95" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE95" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF95" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG95" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11789,50 +11793,50 @@
         <v>237</v>
       </c>
       <c r="R96" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S96" s="16" t="s">
         <v>458</v>
       </c>
       <c r="T96" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U96" s="16">
         <v>1990</v>
       </c>
       <c r="V96" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W96" s="16">
         <v>1990</v>
       </c>
       <c r="X96" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y96" s="18">
         <v>1990</v>
       </c>
       <c r="Z96" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA96" s="16" t="s">
         <v>459</v>
       </c>
       <c r="AB96" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC96" s="14"/>
       <c r="AD96" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE96" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF96" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG96" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11888,50 +11892,50 @@
         <v>237</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S97" s="16" t="s">
         <v>429</v>
       </c>
       <c r="T97" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U97" s="16">
         <v>1990</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W97" s="16">
         <v>1990</v>
       </c>
       <c r="X97" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y97" s="18">
         <v>1990</v>
       </c>
       <c r="Z97" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA97" s="16" t="s">
         <v>460</v>
       </c>
       <c r="AB97" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC97" s="10"/>
       <c r="AD97" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE97" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF97" s="16" t="s">
         <v>269</v>
       </c>
       <c r="AG97" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11987,50 +11991,50 @@
         <v>238</v>
       </c>
       <c r="R98" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S98" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T98" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U98" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V98" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W98" s="16">
         <v>1984</v>
       </c>
       <c r="X98" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y98" s="18">
         <v>2003</v>
       </c>
       <c r="Z98" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA98" s="11" t="s">
         <v>235</v>
       </c>
       <c r="AB98" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AC98" s="14"/>
       <c r="AD98" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE98" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF98" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AG98" s="28" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH98" t="s">
         <v>434</v>
@@ -12089,52 +12093,52 @@
         <v>237</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S99" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T99" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U99" s="10" t="s">
         <v>242</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W99" s="10" t="s">
         <v>242</v>
       </c>
       <c r="X99" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y99" s="10">
         <v>2008</v>
       </c>
       <c r="Z99" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA99" s="12" t="s">
         <v>381</v>
       </c>
       <c r="AB99" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC99" s="12" t="s">
         <v>412</v>
       </c>
       <c r="AD99" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE99" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF99" s="15">
         <v>25685866</v>
       </c>
       <c r="AG99" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AH99" t="s">
         <v>412</v>
@@ -12193,50 +12197,50 @@
         <v>237</v>
       </c>
       <c r="R100" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S100" s="16" t="s">
         <v>461</v>
       </c>
       <c r="T100" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U100" s="16">
         <v>1991</v>
       </c>
       <c r="V100" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W100" s="16">
         <v>1991</v>
       </c>
       <c r="X100" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y100" s="18">
         <v>1991</v>
       </c>
       <c r="Z100" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA100" s="16" t="s">
         <v>431</v>
       </c>
       <c r="AB100" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC100" s="14"/>
       <c r="AD100" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE100" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF100" s="14" t="s">
         <v>269</v>
       </c>
       <c r="AG100" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12292,50 +12296,50 @@
         <v>237</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S101" s="16" t="s">
         <v>462</v>
       </c>
       <c r="T101" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U101" s="16">
         <v>1990</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W101" s="16">
         <v>1990</v>
       </c>
       <c r="X101" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y101" s="18">
         <v>1990</v>
       </c>
       <c r="Z101" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA101" s="16" t="s">
         <v>463</v>
       </c>
       <c r="AB101" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC101" s="10"/>
       <c r="AD101" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE101" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF101" s="10" t="s">
         <v>269</v>
       </c>
       <c r="AG101" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12391,50 +12395,50 @@
         <v>237</v>
       </c>
       <c r="R102" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S102" s="16" t="s">
         <v>438</v>
       </c>
       <c r="T102" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U102" s="16">
         <v>1992</v>
       </c>
       <c r="V102" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W102" s="16">
         <v>1992</v>
       </c>
       <c r="X102" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y102" s="18">
         <v>1992</v>
       </c>
       <c r="Z102" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA102" s="16" t="s">
         <v>431</v>
       </c>
       <c r="AB102" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC102" s="14"/>
       <c r="AD102" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE102" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF102" s="16" t="s">
         <v>269</v>
       </c>
       <c r="AG102" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12490,50 +12494,50 @@
         <v>237</v>
       </c>
       <c r="R103" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S103" s="16" t="s">
         <v>464</v>
       </c>
       <c r="T103" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="U103" s="16">
         <v>1992</v>
       </c>
       <c r="V103" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="W103" s="16">
         <v>1992</v>
       </c>
       <c r="X103" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Y103" s="18">
         <v>1992</v>
       </c>
       <c r="Z103" s="10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AA103" s="16" t="s">
         <v>384</v>
       </c>
       <c r="AB103" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC103" s="10"/>
       <c r="AD103" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE103" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF103" s="16" t="s">
         <v>269</v>
       </c>
       <c r="AG103" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12589,50 +12593,50 @@
         <v>237</v>
       </c>
       <c r="R104" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="S104" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T104" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U104" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V104" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W104" s="14" t="s">
         <v>235</v>
       </c>
       <c r="X104" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y104" s="14">
         <v>2002</v>
       </c>
       <c r="Z104" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA104" s="16" t="s">
         <v>396</v>
       </c>
       <c r="AB104" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC104" s="14"/>
       <c r="AD104" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE104" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF104" s="14" t="s">
         <v>272</v>
       </c>
       <c r="AG104" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12688,52 +12692,52 @@
         <v>237</v>
       </c>
       <c r="R105" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S105" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U105" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V105" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W105" s="10" t="s">
         <v>235</v>
       </c>
       <c r="X105" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y105" s="10">
         <v>1999</v>
       </c>
       <c r="Z105" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA105" s="12" t="s">
         <v>382</v>
       </c>
       <c r="AB105" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC105" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AD105" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE105" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF105" s="10" t="s">
         <v>268</v>
       </c>
       <c r="AG105" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH105" t="s">
         <v>394</v>
@@ -12792,52 +12796,52 @@
         <v>237</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S106" s="14" t="s">
         <v>235</v>
       </c>
       <c r="T106" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U106" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V106" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W106" s="14" t="s">
         <v>235</v>
       </c>
       <c r="X106" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y106" s="14">
         <v>1999</v>
       </c>
       <c r="Z106" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA106" s="12" t="s">
         <v>382</v>
       </c>
       <c r="AB106" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC106" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AD106" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE106" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF106" s="14" t="s">
         <v>268</v>
       </c>
       <c r="AG106" s="17" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH106" t="s">
         <v>394</v>
@@ -12896,52 +12900,52 @@
         <v>237</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S107" s="10" t="s">
         <v>235</v>
       </c>
       <c r="T107" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U107" s="11" t="s">
         <v>235</v>
       </c>
       <c r="V107" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W107" s="10" t="s">
         <v>235</v>
       </c>
       <c r="X107" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y107" s="10">
         <v>1999</v>
       </c>
       <c r="Z107" s="10" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA107" s="12" t="s">
         <v>382</v>
       </c>
       <c r="AB107" s="10" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC107" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AD107" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE107" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF107" s="10" t="s">
         <v>268</v>
       </c>
       <c r="AG107" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH107" t="s">
         <v>394</v>
@@ -13000,52 +13004,52 @@
         <v>237</v>
       </c>
       <c r="R108" s="19" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="S108" s="19" t="s">
         <v>235</v>
       </c>
       <c r="T108" s="19" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="U108" s="20" t="s">
         <v>235</v>
       </c>
       <c r="V108" s="19" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="W108" s="19" t="s">
         <v>235</v>
       </c>
       <c r="X108" s="19" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="Y108" s="19">
         <v>1999</v>
       </c>
       <c r="Z108" s="19" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AA108" s="21" t="s">
         <v>382</v>
       </c>
       <c r="AB108" s="19" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AC108" s="21" t="s">
         <v>394</v>
       </c>
       <c r="AD108" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AE108" s="25" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AF108" s="19" t="s">
         <v>268</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AH108" t="s">
         <v>394</v>

--- a/tabular/Africa3miss.xlsx
+++ b/tabular/Africa3miss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B2179-1C20-404F-80A5-1918DA4F524A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F55D61-CFF4-BA4D-9F7B-857175811922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="43600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12820" yWindow="1660" windowWidth="43600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:AH108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AG1" sqref="A1:AG1"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
